--- a/Team-Data/2020-21/1-4-2020-21.xlsx
+++ b/Team-Data/2020-21/1-4-2020-21.xlsx
@@ -2234,16 +2234,16 @@
         <v>10.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
@@ -2315,7 +2315,7 @@
         <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU10" t="n">
         <v>14</v>
@@ -2503,7 +2503,7 @@
         <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
         <v>21</v>
@@ -5227,7 +5227,7 @@
         <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
